--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983153</v>
+        <v>337788.7049113786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>17.58273782991881</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>59.33709181570769</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1381,61 +1381,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>69.03881051849277</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>46.03546545923035</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>111.5786709947009</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,34 +1785,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>122.5377819982128</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,14 +2080,14 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>53.31405186606163</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,61 +2560,61 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>82.96396779500076</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.1165778354012</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>16.26134662529098</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2791,14 +2791,14 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.94771755361639</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>153.3612161716331</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>214.125961206805</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3207,37 +3207,37 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3520,58 +3520,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>208.2638363878125</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>118.7764738957966</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3666,52 +3666,52 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y2" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V2" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W2" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X2" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5264424227252</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4922,13 +4922,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4989,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,19 +5126,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5153,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="13">
@@ -5229,13 +5229,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W14" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X14" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y14" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5360,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5387,22 +5387,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.820788837921</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>312.367759556794</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>163.4333498955427</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>328.2071404297052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>328.2071404297052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
         <v>20.03527576299844</v>
@@ -6317,40 +6317,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X27" t="n">
-        <v>704.1827762147271</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>496.4224774497732</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>479.7536884346249</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>777.5613083818946</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>777.5613083818946</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>777.5613083818946</v>
+        <v>479.7536884346249</v>
       </c>
       <c r="W30" t="n">
-        <v>777.5613083818946</v>
+        <v>479.7536884346249</v>
       </c>
       <c r="X30" t="n">
-        <v>569.7098081763618</v>
+        <v>479.7536884346249</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>479.7536884346249</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>579.5529687867247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>579.5529687867247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>430.6185591254734</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>747.7683058067928</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>747.7683058067928</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>747.7683058067928</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>747.7683058067928</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>747.7683058067928</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>844.0809192522559</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>641.8943246110218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>413.6707063474109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>178.5185981156682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>178.5185981156682</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>178.5185981156682</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7359,25 +7359,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
         <v>262.7299197543128</v>
@@ -7399,7 +7399,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>777.5613083818946</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>802.5825927271064</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C44" t="n">
-        <v>802.5825927271064</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.5825927271064</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7739,10 +7739,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8072,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9497,7 +9497,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9965,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22685,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>119.0371437604433</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>148.9504458199485</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23068,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>88.10797374893107</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>88.60626993690818</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>126.6730335290854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>35.86639456993785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23627,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>257.4021743712353</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>22.5314303951711</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24025,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24271,10 +24271,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>104.3310285893393</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.397655977241</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>332.3387697201343</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>1.684009314024053</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>189.5116385781865</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24730,22 +24730,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>187.2170111412052</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>79.43937097779215</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,10 +24973,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>11.81542087416983</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25408,13 +25408,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>52.90669720804127</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>88.9896173806811</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>302.2574731329354</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>318.0150222981159</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674311</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.36989223279</v>
-      </c>
-      <c r="C2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
         <v>91388.36989223282</v>
@@ -26337,25 +26337,25 @@
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="K2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223279</v>
-      </c>
       <c r="N2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="P2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078057</v>
+        <v>-50059.87352082102</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.5580107267</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076716</v>
+        <v>30709.55801072669</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>1277.215411620504</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072667</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
     </row>
   </sheetData>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35743,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36217,7 +36217,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113786</v>
+        <v>429790.553494477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.3141125859602</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.58273782991881</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>51.58226250338544</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1025,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,23 +1132,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>59.33709181570769</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>122.5377819982128</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1311,34 +1311,34 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>220.2131257424249</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I14" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>111.5786709947009</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>118.6422217161165</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.5377819982128</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>18.20565100525321</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>111.7765806969846</v>
+        <v>124.0051303913026</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2244,64 +2244,64 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,13 +2405,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,52 +2478,52 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>82.96396779500076</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>99.22041616487689</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2693,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>231.1165778354012</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41.7314554634327</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.809496073036132</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>153.3612161716331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>202.2946864288972</v>
+        <v>234.288905720311</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>69.99226724763528</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>64.38401073897953</v>
+        <v>127.2360271755734</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3435,43 +3435,43 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,55 +3514,55 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>208.2638363878125</v>
-      </c>
-      <c r="T38" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>131.8562746194806</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>111.1751113141405</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3915,52 +3915,52 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V44" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>112.4362335967847</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4309,10 +4309,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>265.1439926813529</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>126.4131672639684</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="4">
@@ -4512,16 +4512,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.7661011803829</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7661011803829</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>210.869396638348</v>
       </c>
       <c r="F6" t="n">
         <v>158.7661011803829</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>627.7355178317791</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>384.2867411876791</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X6" t="n">
-        <v>384.2867411876791</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5264424227252</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="7">
@@ -4761,7 +4761,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,28 +4825,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
         <v>506.1786963984129</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.3930418464681</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C9" t="n">
-        <v>377.9400125653411</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D9" t="n">
-        <v>318.0035561858384</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y9" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>485.167420504237</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.01731535111452</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C12" t="n">
-        <v>89.01731535111452</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D12" t="n">
-        <v>89.01731535111452</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="13">
@@ -5235,7 +5235,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G14" t="n">
-        <v>132.7447050367114</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H14" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>417.2522547781879</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>417.2522547781879</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5372,7 +5372,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>660.701031422288</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W15" t="n">
-        <v>417.2522547781879</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X15" t="n">
-        <v>417.2522547781879</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y15" t="n">
-        <v>417.2522547781879</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5460,7 +5460,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>132.7447050367114</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W17" t="n">
-        <v>132.7447050367114</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>485.4562706347935</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5606,7 +5606,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>844.4980795935692</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X18" t="n">
-        <v>485.4562706347935</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>485.4562706347935</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5697,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>262.7299197543128</v>
@@ -5743,7 +5743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y21" t="n">
-        <v>384.2867411876791</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6080,10 +6080,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6262,16 +6262,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>863.8345129198515</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U27" t="n">
-        <v>461.2466632505798</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V27" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W27" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C29" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E29" t="n">
         <v>475.3318284112885</v>
@@ -6454,7 +6454,7 @@
         <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
         <v>231.8830517671884</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W29" t="n">
-        <v>962.2293816994886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y29" t="n">
-        <v>718.7806050553886</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>479.7536884346249</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>479.7536884346249</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>479.7536884346249</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>479.7536884346249</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>479.7536884346249</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6682,13 +6682,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6727,13 +6727,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V32" t="n">
         <v>506.1786963984129</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6161971483371</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V35" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>728.6161971483371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>728.6161971483371</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N36" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N36" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>899.0228012288387</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="U36" t="n">
-        <v>670.7991829652278</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="V36" t="n">
-        <v>435.6470747334852</v>
+        <v>662.1185713900188</v>
       </c>
       <c r="W36" t="n">
-        <v>435.6470747334852</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>743.5980286395683</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7295,10 +7295,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
         <v>19.28114311021272</v>
@@ -7359,25 +7359,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>678.3417187247995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>678.3417187247995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7608,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V44" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>336.5218609735422</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>399.5118995681682</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>156.0631229240681</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9020,10 +9020,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9254,10 +9254,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,13 +22549,13 @@
         <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>6.921331650536231</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22685,13 +22685,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148.9504458199485</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>93.48694988999844</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>88.10797374893107</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>22.5314303951711</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23159,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>149.5179749360441</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>88.60626993690818</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23475,10 +23475,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23512,10 +23512,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I14" t="n">
-        <v>98.14696326317221</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>35.86639456993785</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>133.0527614448031</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23700,10 +23700,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23749,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>257.4021743712353</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>22.5314303951711</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>181.9590776895684</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>33.29263169639931</v>
+        <v>21.06408200208125</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,13 +24253,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24293,13 +24293,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>78.70226791530382</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>332.3387697201343</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24502,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.9374179877662385</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.684009314024053</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>340.1989146088291</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>207.2105735132092</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>79.43937097779215</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24967,16 +24967,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>125.4575720412377</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>135.7807179558422</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25244,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>135.7807179558421</v>
+        <v>72.92870151924819</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7562331984328523</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>40.85222436883518</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,19 +25760,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>88.9896173806811</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V44" t="n">
-        <v>318.0150222981159</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>24.90728356642596</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.36989223283</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="M2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="N2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="O2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="O2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223286</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082102</v>
+        <v>-39063.6639627846</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.5580107267</v>
+        <v>41705.76756876313</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.55801072669</v>
+        <v>41705.76756876315</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.3675687631</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620504</v>
+        <v>12273.42496965689</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072667</v>
+        <v>75333.36756876316</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072672</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876318</v>
       </c>
     </row>
   </sheetData>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O18" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O18" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
